--- a/biology/Biochimie/Acide_coumarique/Acide_coumarique.xlsx
+++ b/biology/Biochimie/Acide_coumarique/Acide_coumarique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide coumarique ou  acide hydroxycinnamique est un composé phytochimique dérivé de l'acide cinnamique. Il existe trois isomères de cet acide, correspondant aux trois positionnements possibles du groupe hydroxyle sur le noyau benzénique :
 l'acide orthocoumarique
@@ -518,7 +530,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide coumarique est synthétisé par hydroxylation de l'acide cinnamique.
 </t>
@@ -549,7 +563,9 @@
           <t>Acides hydroxycinnamiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dérivés de l'acide hydroxycinnamique forment une importante famille des acides-phénols avec les acides hydroxybenzoïques. On compte parmi eux notamment :
 l'acide caféique
